--- a/Documents/Car Sharing App - Business Canvas Model.xlsx
+++ b/Documents/Car Sharing App - Business Canvas Model.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Google Drive\college\Year4\Project\Project Documents\CarSharingApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Google Drive\college\Year4\Project\Project Documents\CarSharingApp\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Key Partners</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Mobile Users</t>
+  </si>
+  <si>
+    <t>possible for future: selling popular route information to advertisers for targeted advertising</t>
+  </si>
+  <si>
+    <t>Google Maps API requests, once it goes above free quota their would be a charge</t>
   </si>
 </sst>
 </file>
@@ -114,39 +120,47 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -353,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,63 +390,62 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +763,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -764,14 +777,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -780,14 +793,14 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -798,14 +811,14 @@
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -813,71 +826,71 @@
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="39"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="6"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="40"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="6"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="11"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
@@ -888,18 +901,18 @@
       <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="26" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="38" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="8"/>
@@ -907,138 +920,142 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="6"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="43" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
+      <c r="A17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="27"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="27"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="27"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="27"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D22:F22"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
